--- a/詳細設計書1.xlsx
+++ b/詳細設計書1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/text/07_Design/【実習】各種設計書（テンプレ）/詳細設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/sekkei/sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:40009_{DEEFC818-E24E-4F20-BECF-F248DAF13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9483C372-FF8E-4869-8945-3B1A9C830DEB}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:40009_{DEEFC818-E24E-4F20-BECF-F248DAF13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AA56057-DCA0-4C5F-918F-EF894A1F0511}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="322">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -3189,6 +3189,109 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.アカウント更新時のパスワードの扱い</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウントの更新時、パスワードの変更を行う際は、テキストボックスに入力を行う。</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの更新を行わない時は、テキストボックスは空欄</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの変更がある場合</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面では、文字数に合わせて●で表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パスワードの変更がない場合</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面では、「パスワードの変更はされませんでした。」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -3660,6 +3763,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="5" applyFill="1" applyBorder="1"/>
@@ -3713,6 +3817,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3731,36 +3865,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3770,23 +3874,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3812,6 +3910,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3886,7 +3990,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9814,20 +9917,20 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -9846,24 +9949,24 @@
     </row>
     <row r="9" spans="1:176" ht="13" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -9882,22 +9985,22 @@
     </row>
     <row r="10" spans="1:176" ht="13" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -10112,18 +10215,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="AA17" s="19"/>
@@ -10145,16 +10248,16 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="AA18" s="19"/>
@@ -10176,16 +10279,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -10417,12 +10520,12 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="105">
+      <c r="F26" s="106">
         <v>38487</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="29" t="s">
         <v>120</v>
       </c>
@@ -11053,7 +11156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FU79"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
@@ -11067,121 +11170,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6"/>
@@ -12068,41 +12171,41 @@
       <c r="AG19" s="19"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="108" t="s">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="111"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
       <c r="A21" s="6"/>
@@ -12895,41 +12998,41 @@
       <c r="AG36" s="31"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="108" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="109"/>
+      <c r="AG37" s="111"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="6"/>
@@ -13566,41 +13669,41 @@
       <c r="AG51" s="31"/>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A55" s="108"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="108" t="s">
+      <c r="A55" s="109"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="109"/>
-      <c r="O55" s="109"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="109"/>
-      <c r="W55" s="109"/>
-      <c r="X55" s="109"/>
-      <c r="Y55" s="109"/>
-      <c r="Z55" s="109"/>
-      <c r="AA55" s="109"/>
-      <c r="AB55" s="109"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="108"/>
-      <c r="AE55" s="110"/>
-      <c r="AF55" s="108"/>
-      <c r="AG55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="110"/>
+      <c r="V55" s="110"/>
+      <c r="W55" s="110"/>
+      <c r="X55" s="110"/>
+      <c r="Y55" s="110"/>
+      <c r="Z55" s="110"/>
+      <c r="AA55" s="110"/>
+      <c r="AB55" s="110"/>
+      <c r="AC55" s="111"/>
+      <c r="AD55" s="109"/>
+      <c r="AE55" s="111"/>
+      <c r="AF55" s="109"/>
+      <c r="AG55" s="111"/>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1">
       <c r="A56" s="6"/>
@@ -14666,15 +14769,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="G55:AC55"/>
     <mergeCell ref="AD55:AE55"/>
@@ -14687,6 +14781,15 @@
     <mergeCell ref="G37:AC37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14703,7 +14806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EDC55-66B4-404D-926D-9B49C84BCB92}">
   <dimension ref="A1:FU129"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
@@ -14717,121 +14820,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -15500,121 +15603,121 @@
       <c r="AG17" s="31"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="155"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="108" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="108" t="s">
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="108" t="s">
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG19" s="110"/>
+      <c r="AG19" s="111"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="111"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -16877,121 +16980,121 @@
       <c r="AG54" s="31"/>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A55" s="152" t="s">
+      <c r="A55" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="153"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="153"/>
-      <c r="P55" s="153"/>
-      <c r="Q55" s="153"/>
-      <c r="R55" s="153"/>
-      <c r="S55" s="153"/>
-      <c r="T55" s="153"/>
-      <c r="U55" s="153"/>
-      <c r="V55" s="153"/>
-      <c r="W55" s="153"/>
-      <c r="X55" s="153"/>
-      <c r="Y55" s="153"/>
-      <c r="Z55" s="153"/>
-      <c r="AA55" s="153"/>
-      <c r="AB55" s="153"/>
-      <c r="AC55" s="153"/>
-      <c r="AD55" s="153"/>
-      <c r="AE55" s="153"/>
-      <c r="AF55" s="153"/>
-      <c r="AG55" s="154"/>
+      <c r="B55" s="154"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="154"/>
+      <c r="W55" s="154"/>
+      <c r="X55" s="154"/>
+      <c r="Y55" s="154"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="154"/>
+      <c r="AB55" s="154"/>
+      <c r="AC55" s="154"/>
+      <c r="AD55" s="154"/>
+      <c r="AE55" s="154"/>
+      <c r="AF55" s="154"/>
+      <c r="AG55" s="155"/>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="108" t="s">
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="109"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="109"/>
-      <c r="Y56" s="109"/>
-      <c r="Z56" s="109"/>
-      <c r="AA56" s="109"/>
-      <c r="AB56" s="109"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="108" t="s">
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="110"/>
+      <c r="W56" s="110"/>
+      <c r="X56" s="110"/>
+      <c r="Y56" s="110"/>
+      <c r="Z56" s="110"/>
+      <c r="AA56" s="110"/>
+      <c r="AB56" s="110"/>
+      <c r="AC56" s="111"/>
+      <c r="AD56" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE56" s="110"/>
-      <c r="AF56" s="108" t="s">
+      <c r="AE56" s="111"/>
+      <c r="AF56" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG56" s="110"/>
+      <c r="AG56" s="111"/>
     </row>
     <row r="57" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="109"/>
-      <c r="U57" s="109"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
-      <c r="X57" s="109"/>
-      <c r="Y57" s="109"/>
-      <c r="Z57" s="109"/>
-      <c r="AA57" s="109"/>
-      <c r="AB57" s="109"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="108"/>
-      <c r="AE57" s="110"/>
-      <c r="AF57" s="108"/>
-      <c r="AG57" s="110"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="110"/>
+      <c r="U57" s="110"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="110"/>
+      <c r="Z57" s="110"/>
+      <c r="AA57" s="110"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="111"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="111"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="111"/>
     </row>
     <row r="58" spans="1:33" ht="12.75" customHeight="1">
       <c r="A58" s="6" t="s">
@@ -17331,121 +17434,121 @@
       <c r="AG66" s="31"/>
     </row>
     <row r="67" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A67" s="152" t="s">
+      <c r="A67" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
-      <c r="N67" s="153"/>
-      <c r="O67" s="153"/>
-      <c r="P67" s="153"/>
-      <c r="Q67" s="153"/>
-      <c r="R67" s="153"/>
-      <c r="S67" s="153"/>
-      <c r="T67" s="153"/>
-      <c r="U67" s="153"/>
-      <c r="V67" s="153"/>
-      <c r="W67" s="153"/>
-      <c r="X67" s="153"/>
-      <c r="Y67" s="153"/>
-      <c r="Z67" s="153"/>
-      <c r="AA67" s="153"/>
-      <c r="AB67" s="153"/>
-      <c r="AC67" s="153"/>
-      <c r="AD67" s="153"/>
-      <c r="AE67" s="153"/>
-      <c r="AF67" s="153"/>
-      <c r="AG67" s="154"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="154"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="154"/>
+      <c r="W67" s="154"/>
+      <c r="X67" s="154"/>
+      <c r="Y67" s="154"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="154"/>
+      <c r="AB67" s="154"/>
+      <c r="AC67" s="154"/>
+      <c r="AD67" s="154"/>
+      <c r="AE67" s="154"/>
+      <c r="AF67" s="154"/>
+      <c r="AG67" s="155"/>
     </row>
     <row r="68" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="108" t="s">
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="109"/>
-      <c r="S68" s="109"/>
-      <c r="T68" s="109"/>
-      <c r="U68" s="109"/>
-      <c r="V68" s="109"/>
-      <c r="W68" s="109"/>
-      <c r="X68" s="109"/>
-      <c r="Y68" s="109"/>
-      <c r="Z68" s="109"/>
-      <c r="AA68" s="109"/>
-      <c r="AB68" s="109"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="108" t="s">
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
+      <c r="T68" s="110"/>
+      <c r="U68" s="110"/>
+      <c r="V68" s="110"/>
+      <c r="W68" s="110"/>
+      <c r="X68" s="110"/>
+      <c r="Y68" s="110"/>
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="110"/>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="111"/>
+      <c r="AD68" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE68" s="110"/>
-      <c r="AF68" s="108" t="s">
+      <c r="AE68" s="111"/>
+      <c r="AF68" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG68" s="110"/>
+      <c r="AG68" s="111"/>
     </row>
     <row r="69" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
-      <c r="S69" s="109"/>
-      <c r="T69" s="109"/>
-      <c r="U69" s="109"/>
-      <c r="V69" s="109"/>
-      <c r="W69" s="109"/>
-      <c r="X69" s="109"/>
-      <c r="Y69" s="109"/>
-      <c r="Z69" s="109"/>
-      <c r="AA69" s="109"/>
-      <c r="AB69" s="109"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="108"/>
-      <c r="AE69" s="110"/>
-      <c r="AF69" s="108"/>
-      <c r="AG69" s="110"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
+      <c r="U69" s="110"/>
+      <c r="V69" s="110"/>
+      <c r="W69" s="110"/>
+      <c r="X69" s="110"/>
+      <c r="Y69" s="110"/>
+      <c r="Z69" s="110"/>
+      <c r="AA69" s="110"/>
+      <c r="AB69" s="110"/>
+      <c r="AC69" s="111"/>
+      <c r="AD69" s="109"/>
+      <c r="AE69" s="111"/>
+      <c r="AF69" s="109"/>
+      <c r="AG69" s="111"/>
     </row>
     <row r="70" spans="1:33" ht="12.75" customHeight="1">
       <c r="A70" s="6" t="s">
@@ -18200,7 +18303,7 @@
       <c r="D90" s="30"/>
       <c r="E90" s="30"/>
       <c r="F90" s="31"/>
-      <c r="G90" s="176" t="s">
+      <c r="G90" s="88" t="s">
         <v>248</v>
       </c>
       <c r="H90" s="30"/>
@@ -18777,121 +18880,121 @@
       <c r="AG105" s="31"/>
     </row>
     <row r="106" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A106" s="152" t="s">
+      <c r="A106" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="153"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
-      <c r="P106" s="153"/>
-      <c r="Q106" s="153"/>
-      <c r="R106" s="153"/>
-      <c r="S106" s="153"/>
-      <c r="T106" s="153"/>
-      <c r="U106" s="153"/>
-      <c r="V106" s="153"/>
-      <c r="W106" s="153"/>
-      <c r="X106" s="153"/>
-      <c r="Y106" s="153"/>
-      <c r="Z106" s="153"/>
-      <c r="AA106" s="153"/>
-      <c r="AB106" s="153"/>
-      <c r="AC106" s="153"/>
-      <c r="AD106" s="153"/>
-      <c r="AE106" s="153"/>
-      <c r="AF106" s="153"/>
-      <c r="AG106" s="154"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="154"/>
+      <c r="P106" s="154"/>
+      <c r="Q106" s="154"/>
+      <c r="R106" s="154"/>
+      <c r="S106" s="154"/>
+      <c r="T106" s="154"/>
+      <c r="U106" s="154"/>
+      <c r="V106" s="154"/>
+      <c r="W106" s="154"/>
+      <c r="X106" s="154"/>
+      <c r="Y106" s="154"/>
+      <c r="Z106" s="154"/>
+      <c r="AA106" s="154"/>
+      <c r="AB106" s="154"/>
+      <c r="AC106" s="154"/>
+      <c r="AD106" s="154"/>
+      <c r="AE106" s="154"/>
+      <c r="AF106" s="154"/>
+      <c r="AG106" s="155"/>
     </row>
     <row r="107" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A107" s="108" t="s">
+      <c r="A107" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="109"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="108" t="s">
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H107" s="109"/>
-      <c r="I107" s="109"/>
-      <c r="J107" s="109"/>
-      <c r="K107" s="109"/>
-      <c r="L107" s="109"/>
-      <c r="M107" s="109"/>
-      <c r="N107" s="109"/>
-      <c r="O107" s="109"/>
-      <c r="P107" s="109"/>
-      <c r="Q107" s="109"/>
-      <c r="R107" s="109"/>
-      <c r="S107" s="109"/>
-      <c r="T107" s="109"/>
-      <c r="U107" s="109"/>
-      <c r="V107" s="109"/>
-      <c r="W107" s="109"/>
-      <c r="X107" s="109"/>
-      <c r="Y107" s="109"/>
-      <c r="Z107" s="109"/>
-      <c r="AA107" s="109"/>
-      <c r="AB107" s="109"/>
-      <c r="AC107" s="110"/>
-      <c r="AD107" s="108" t="s">
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="110"/>
+      <c r="O107" s="110"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="110"/>
+      <c r="R107" s="110"/>
+      <c r="S107" s="110"/>
+      <c r="T107" s="110"/>
+      <c r="U107" s="110"/>
+      <c r="V107" s="110"/>
+      <c r="W107" s="110"/>
+      <c r="X107" s="110"/>
+      <c r="Y107" s="110"/>
+      <c r="Z107" s="110"/>
+      <c r="AA107" s="110"/>
+      <c r="AB107" s="110"/>
+      <c r="AC107" s="111"/>
+      <c r="AD107" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE107" s="110"/>
-      <c r="AF107" s="108" t="s">
+      <c r="AE107" s="111"/>
+      <c r="AF107" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG107" s="110"/>
+      <c r="AG107" s="111"/>
     </row>
     <row r="108" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
-      <c r="F108" s="110"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="109"/>
-      <c r="I108" s="109"/>
-      <c r="J108" s="109"/>
-      <c r="K108" s="109"/>
-      <c r="L108" s="109"/>
-      <c r="M108" s="109"/>
-      <c r="N108" s="109"/>
-      <c r="O108" s="109"/>
-      <c r="P108" s="109"/>
-      <c r="Q108" s="109"/>
-      <c r="R108" s="109"/>
-      <c r="S108" s="109"/>
-      <c r="T108" s="109"/>
-      <c r="U108" s="109"/>
-      <c r="V108" s="109"/>
-      <c r="W108" s="109"/>
-      <c r="X108" s="109"/>
-      <c r="Y108" s="109"/>
-      <c r="Z108" s="109"/>
-      <c r="AA108" s="109"/>
-      <c r="AB108" s="109"/>
-      <c r="AC108" s="110"/>
-      <c r="AD108" s="108"/>
-      <c r="AE108" s="110"/>
-      <c r="AF108" s="108"/>
-      <c r="AG108" s="110"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="110"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="111"/>
+      <c r="G108" s="109"/>
+      <c r="H108" s="110"/>
+      <c r="I108" s="110"/>
+      <c r="J108" s="110"/>
+      <c r="K108" s="110"/>
+      <c r="L108" s="110"/>
+      <c r="M108" s="110"/>
+      <c r="N108" s="110"/>
+      <c r="O108" s="110"/>
+      <c r="P108" s="110"/>
+      <c r="Q108" s="110"/>
+      <c r="R108" s="110"/>
+      <c r="S108" s="110"/>
+      <c r="T108" s="110"/>
+      <c r="U108" s="110"/>
+      <c r="V108" s="110"/>
+      <c r="W108" s="110"/>
+      <c r="X108" s="110"/>
+      <c r="Y108" s="110"/>
+      <c r="Z108" s="110"/>
+      <c r="AA108" s="110"/>
+      <c r="AB108" s="110"/>
+      <c r="AC108" s="111"/>
+      <c r="AD108" s="109"/>
+      <c r="AE108" s="111"/>
+      <c r="AF108" s="109"/>
+      <c r="AG108" s="111"/>
     </row>
     <row r="109" spans="1:33" ht="12.75" customHeight="1">
       <c r="A109" s="6" t="s">
@@ -19678,42 +19781,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="A55:AG55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="A67:AG67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:AC68"/>
-    <mergeCell ref="AD68:AE68"/>
-    <mergeCell ref="AF68:AG68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:AC69"/>
-    <mergeCell ref="AD69:AE69"/>
-    <mergeCell ref="AF69:AG69"/>
     <mergeCell ref="A108:F108"/>
     <mergeCell ref="G108:AC108"/>
     <mergeCell ref="AD108:AE108"/>
@@ -19723,6 +19790,42 @@
     <mergeCell ref="G107:AC107"/>
     <mergeCell ref="AD107:AE107"/>
     <mergeCell ref="AF107:AG107"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:AC68"/>
+    <mergeCell ref="AD68:AE68"/>
+    <mergeCell ref="AF68:AG68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:AC69"/>
+    <mergeCell ref="AD69:AE69"/>
+    <mergeCell ref="AF69:AG69"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="A67:AG67"/>
+    <mergeCell ref="A55:AG55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19752,121 +19855,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -21506,7 +21609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:FU46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
@@ -21520,173 +21623,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="164" t="s">
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="167" t="s">
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="169"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="176"/>
       <c r="F5" s="11" t="s">
         <v>47</v>
       </c>
@@ -21700,19 +21803,19 @@
         <v>92</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="173" t="s">
+      <c r="K5" s="162"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="176"/>
       <c r="V5" s="6" t="s">
         <v>97</v>
       </c>
@@ -21723,12 +21826,12 @@
       <c r="AA5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="172"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="173"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -22602,136 +22705,136 @@
       <c r="AG20" s="31"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="108" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="108" t="s">
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="108" t="s">
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG21" s="110"/>
+      <c r="AG21" s="111"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="111"/>
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158" t="s">
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="164" t="s">
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="167" t="s">
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="169"/>
+      <c r="AC23" s="169"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="170"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="175"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
       <c r="F24" s="11" t="s">
         <v>47</v>
       </c>
@@ -22745,19 +22848,19 @@
         <v>92</v>
       </c>
       <c r="J24" s="8"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="173" t="s">
+      <c r="K24" s="162"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="176"/>
       <c r="V24" s="6" t="s">
         <v>97</v>
       </c>
@@ -22768,12 +22871,12 @@
       <c r="AA24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="171"/>
-      <c r="AD24" s="171"/>
-      <c r="AE24" s="171"/>
-      <c r="AF24" s="171"/>
-      <c r="AG24" s="172"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="173"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
       <c r="A25" s="29" t="s">
@@ -22913,136 +23016,136 @@
       <c r="AG27" s="31"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="108" t="s">
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="108" t="s">
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="108" t="s">
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG28" s="110"/>
+      <c r="AG28" s="111"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="111"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="164" t="s">
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="167" t="s">
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="166"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="167"/>
+      <c r="AB30" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169"/>
+      <c r="AC30" s="169"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="170"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="175"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
       <c r="F31" s="11" t="s">
         <v>47</v>
       </c>
@@ -23056,19 +23159,19 @@
         <v>92</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="173" t="s">
+      <c r="K31" s="162"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="176"/>
       <c r="V31" s="6" t="s">
         <v>97</v>
       </c>
@@ -23079,12 +23182,12 @@
       <c r="AA31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AB31" s="170"/>
-      <c r="AC31" s="171"/>
-      <c r="AD31" s="171"/>
-      <c r="AE31" s="171"/>
-      <c r="AF31" s="171"/>
-      <c r="AG31" s="172"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="173"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
@@ -23799,20 +23902,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:P31"/>
-    <mergeCell ref="Q30:AA30"/>
-    <mergeCell ref="AB30:AG31"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:P24"/>
+    <mergeCell ref="Q23:AA23"/>
+    <mergeCell ref="AB23:AG24"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="Q5:U5"/>
@@ -23828,20 +23931,20 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:P24"/>
-    <mergeCell ref="Q23:AA23"/>
-    <mergeCell ref="AB23:AG24"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:P31"/>
+    <mergeCell ref="Q30:AA30"/>
+    <mergeCell ref="AB30:AG31"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="Q31:U31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23858,8 +23961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FU46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -23872,119 +23975,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="13"/>
@@ -24553,7 +24656,9 @@
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -24588,7 +24693,9 @@
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -24622,7 +24729,9 @@
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -24688,7 +24797,9 @@
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -24721,7 +24832,9 @@
       <c r="A23" s="22"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -24754,7 +24867,9 @@
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -24789,7 +24904,9 @@
       <c r="A25" s="22"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -25532,119 +25649,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -27081,127 +27198,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108" t="s">
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="110"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -28497,139 +28614,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="8" spans="1:33">
       <c r="B8" t="s">
@@ -28687,1138 +28804,1165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="123" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="123" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="125"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="123" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="127" t="s">
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
     </row>
     <row r="20" spans="2:32">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
     </row>
     <row r="21" spans="2:32">
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="23" spans="2:32">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="123" t="s">
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
     </row>
     <row r="24" spans="2:32">
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="125"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
     </row>
     <row r="25" spans="2:32">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="123" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="125"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
     </row>
     <row r="26" spans="2:32">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="123"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="125"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
     </row>
     <row r="27" spans="2:32">
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="123" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="123"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="127" t="s">
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
     </row>
     <row r="28" spans="2:32">
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
     </row>
     <row r="29" spans="2:32">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="123"/>
     </row>
     <row r="30" spans="2:32">
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="129"/>
-      <c r="Y30" s="129"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
     </row>
     <row r="31" spans="2:32">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119" t="s">
+      <c r="C31" s="129"/>
+      <c r="D31" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="118" t="s">
+      <c r="E31" s="130"/>
+      <c r="F31" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="118"/>
-      <c r="H31" s="117" t="s">
+      <c r="G31" s="129"/>
+      <c r="H31" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117" t="s">
+      <c r="I31" s="128"/>
+      <c r="J31" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="118" t="s">
+      <c r="K31" s="128"/>
+      <c r="L31" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="117" t="s">
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="P31" s="117"/>
+      <c r="P31" s="128"/>
       <c r="Q31" s="86" t="s">
         <v>139</v>
       </c>
       <c r="R31" s="86"/>
       <c r="S31" s="87"/>
-      <c r="T31" s="118" t="s">
+      <c r="T31" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="117" t="s">
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117" t="s">
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117" t="s">
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117" t="s">
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF31" s="117"/>
+      <c r="AF31" s="128"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="B32" s="118">
+      <c r="B32" s="129">
         <v>8</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117" t="s">
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="129"/>
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117" t="s">
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF32" s="117"/>
+      <c r="AF32" s="128"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="118">
+      <c r="B33" s="129">
         <v>7</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117" t="s">
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="129"/>
+      <c r="U33" s="129"/>
+      <c r="V33" s="129"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117" t="s">
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF33" s="117"/>
+      <c r="AF33" s="128"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="118">
+      <c r="B34" s="129">
         <v>6</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117" t="s">
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="133"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117" t="s">
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF34" s="117"/>
+      <c r="AF34" s="128"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="118">
+      <c r="B35" s="129">
         <v>5</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="117" t="s">
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="117" t="s">
+      <c r="AD35" s="128"/>
+      <c r="AE35" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF35" s="117"/>
+      <c r="AF35" s="128"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="118">
+      <c r="B36" s="129">
         <v>4</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="117"/>
-      <c r="Y36" s="117"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="117" t="s">
+      <c r="C36" s="129"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="133"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="129"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="128"/>
+      <c r="Z36" s="128"/>
+      <c r="AA36" s="128"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD36" s="117"/>
-      <c r="AE36" s="117" t="s">
+      <c r="AD36" s="128"/>
+      <c r="AE36" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF36" s="117"/>
+      <c r="AF36" s="128"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="118">
+      <c r="B37" s="129">
         <v>3</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="117" t="s">
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="133"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="129"/>
+      <c r="V37" s="129"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="117" t="s">
+      <c r="AD37" s="128"/>
+      <c r="AE37" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF37" s="117"/>
+      <c r="AF37" s="128"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="118">
+      <c r="B38" s="129">
         <v>2</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="117" t="s">
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
+      <c r="V38" s="129"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="128"/>
+      <c r="AA38" s="128"/>
+      <c r="AB38" s="128"/>
+      <c r="AC38" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="117" t="s">
+      <c r="AD38" s="128"/>
+      <c r="AE38" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF38" s="117"/>
+      <c r="AF38" s="128"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="118">
+      <c r="B39" s="129">
         <v>1</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119" t="s">
+      <c r="C39" s="129"/>
+      <c r="D39" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="119"/>
-      <c r="F39" s="118" t="s">
+      <c r="E39" s="130"/>
+      <c r="F39" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="117" t="s">
+      <c r="G39" s="129"/>
+      <c r="H39" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117" t="s">
+      <c r="I39" s="128"/>
+      <c r="J39" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="K39" s="117"/>
-      <c r="L39" s="118" t="s">
+      <c r="K39" s="128"/>
+      <c r="L39" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="117" t="s">
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="128" t="s">
         <v>178</v>
       </c>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="120" t="s">
+      <c r="P39" s="128"/>
+      <c r="Q39" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="R39" s="121"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="118" t="s">
+      <c r="R39" s="132"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="U39" s="118"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="117" t="s">
+      <c r="U39" s="129"/>
+      <c r="V39" s="129"/>
+      <c r="W39" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="117"/>
-      <c r="Z39" s="117" t="s">
+      <c r="X39" s="128"/>
+      <c r="Y39" s="128"/>
+      <c r="Z39" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="117" t="s">
+      <c r="AA39" s="128"/>
+      <c r="AB39" s="128"/>
+      <c r="AC39" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="AD39" s="117"/>
-      <c r="AE39" s="117" t="s">
+      <c r="AD39" s="128"/>
+      <c r="AE39" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="AF39" s="117"/>
+      <c r="AF39" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="B12:I13"/>
-    <mergeCell ref="J12:Q13"/>
-    <mergeCell ref="R12:Y13"/>
-    <mergeCell ref="Z12:AE13"/>
-    <mergeCell ref="B14:I15"/>
-    <mergeCell ref="J14:Q15"/>
-    <mergeCell ref="R14:Y15"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:Q9"/>
-    <mergeCell ref="R8:Y9"/>
-    <mergeCell ref="Z8:AE9"/>
-    <mergeCell ref="B10:I11"/>
-    <mergeCell ref="J10:Q11"/>
-    <mergeCell ref="R10:Y11"/>
-    <mergeCell ref="Z10:AE11"/>
-    <mergeCell ref="B27:I28"/>
-    <mergeCell ref="J27:Q28"/>
-    <mergeCell ref="R27:Y28"/>
-    <mergeCell ref="Z27:AE28"/>
-    <mergeCell ref="B29:I30"/>
-    <mergeCell ref="J29:Q30"/>
-    <mergeCell ref="R29:Y30"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="J23:Q24"/>
-    <mergeCell ref="R23:Y24"/>
-    <mergeCell ref="Z23:AE24"/>
-    <mergeCell ref="B25:I26"/>
-    <mergeCell ref="J25:Q26"/>
-    <mergeCell ref="R25:Y26"/>
-    <mergeCell ref="Z25:AE26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="AE32:AF32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
@@ -29843,86 +29987,59 @@
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="W33:Y33"/>
     <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="J27:Q28"/>
+    <mergeCell ref="R27:Y28"/>
+    <mergeCell ref="Z27:AE28"/>
+    <mergeCell ref="B29:I30"/>
+    <mergeCell ref="J29:Q30"/>
+    <mergeCell ref="R29:Y30"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="J23:Q24"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="Z23:AE24"/>
+    <mergeCell ref="B25:I26"/>
+    <mergeCell ref="J25:Q26"/>
+    <mergeCell ref="R25:Y26"/>
+    <mergeCell ref="Z25:AE26"/>
+    <mergeCell ref="B12:I13"/>
+    <mergeCell ref="J12:Q13"/>
+    <mergeCell ref="R12:Y13"/>
+    <mergeCell ref="Z12:AE13"/>
+    <mergeCell ref="B14:I15"/>
+    <mergeCell ref="J14:Q15"/>
+    <mergeCell ref="R14:Y15"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:Q9"/>
+    <mergeCell ref="R8:Y9"/>
+    <mergeCell ref="Z8:AE9"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="J10:Q11"/>
+    <mergeCell ref="R10:Y11"/>
+    <mergeCell ref="Z10:AE11"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29948,145 +30065,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="8" spans="1:33">
       <c r="B8" t="s">
@@ -30152,30 +30269,30 @@
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
@@ -30274,58 +30391,58 @@
       </c>
     </row>
     <row r="73" spans="2:22">
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="133"/>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="133"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="133"/>
-      <c r="L73" s="133"/>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="134"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
     </row>
     <row r="74" spans="2:22">
-      <c r="B74" s="133"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="133"/>
-      <c r="E74" s="133"/>
-      <c r="F74" s="133"/>
-      <c r="G74" s="133"/>
-      <c r="H74" s="133"/>
-      <c r="I74" s="133"/>
-      <c r="J74" s="133"/>
-      <c r="K74" s="133"/>
-      <c r="L74" s="133"/>
-      <c r="M74" s="133"/>
-      <c r="N74" s="133"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
+      <c r="L74" s="134"/>
+      <c r="M74" s="134"/>
+      <c r="N74" s="134"/>
     </row>
     <row r="77" spans="2:22">
-      <c r="O77" s="134" t="s">
+      <c r="O77" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="P77" s="134"/>
-      <c r="Q77" s="134"/>
-      <c r="R77" s="134"/>
-      <c r="S77" s="134"/>
-      <c r="T77" s="134"/>
-      <c r="U77" s="134"/>
-      <c r="V77" s="134"/>
+      <c r="P77" s="135"/>
+      <c r="Q77" s="135"/>
+      <c r="R77" s="135"/>
+      <c r="S77" s="135"/>
+      <c r="T77" s="135"/>
+      <c r="U77" s="135"/>
+      <c r="V77" s="135"/>
     </row>
     <row r="78" spans="2:22">
-      <c r="O78" s="134"/>
-      <c r="P78" s="134"/>
-      <c r="Q78" s="134"/>
-      <c r="R78" s="134"/>
-      <c r="S78" s="134"/>
-      <c r="T78" s="134"/>
-      <c r="U78" s="134"/>
-      <c r="V78" s="134"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="135"/>
+      <c r="Q78" s="135"/>
+      <c r="R78" s="135"/>
+      <c r="S78" s="135"/>
+      <c r="T78" s="135"/>
+      <c r="U78" s="135"/>
+      <c r="V78" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -30368,145 +30485,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
     </row>
     <row r="10" spans="1:33">
       <c r="B10" t="s">
@@ -30602,111 +30719,116 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="135" t="s">
+      <c r="B43" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="135"/>
-      <c r="K44" s="135"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="O56" s="134" t="s">
+      <c r="O56" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="134"/>
-      <c r="V56" s="134"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="135"/>
+      <c r="V56" s="135"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="O57" s="134"/>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="134"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B43:M44"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="O56:V57"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -30716,11 +30838,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B43:M44"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="O56:V57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30737,7 +30854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3055249-BC09-4CA0-AF10-BD48F16C8334}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -30747,145 +30864,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
     </row>
     <row r="9" spans="1:33">
       <c r="B9" t="s">
@@ -30951,30 +31068,30 @@
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
@@ -31073,60 +31190,60 @@
       </c>
     </row>
     <row r="70" spans="2:24">
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
     </row>
     <row r="71" spans="2:24">
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="125"/>
     </row>
     <row r="74" spans="2:24" ht="13" customHeight="1">
-      <c r="M74" s="134" t="s">
+      <c r="M74" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="134"/>
-      <c r="R74" s="134"/>
-      <c r="S74" s="134"/>
-      <c r="T74" s="134"/>
-      <c r="U74" s="134"/>
-      <c r="V74" s="134"/>
-      <c r="W74" s="134"/>
-      <c r="X74" s="134"/>
+      <c r="N74" s="135"/>
+      <c r="O74" s="135"/>
+      <c r="P74" s="135"/>
+      <c r="Q74" s="135"/>
+      <c r="R74" s="135"/>
+      <c r="S74" s="135"/>
+      <c r="T74" s="135"/>
+      <c r="U74" s="135"/>
+      <c r="V74" s="135"/>
+      <c r="W74" s="135"/>
+      <c r="X74" s="135"/>
     </row>
     <row r="75" spans="2:24" ht="13" customHeight="1">
-      <c r="M75" s="134"/>
-      <c r="N75" s="134"/>
-      <c r="O75" s="134"/>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="134"/>
-      <c r="R75" s="134"/>
-      <c r="S75" s="134"/>
-      <c r="T75" s="134"/>
-      <c r="U75" s="134"/>
-      <c r="V75" s="134"/>
-      <c r="W75" s="134"/>
-      <c r="X75" s="134"/>
+      <c r="M75" s="135"/>
+      <c r="N75" s="135"/>
+      <c r="O75" s="135"/>
+      <c r="P75" s="135"/>
+      <c r="Q75" s="135"/>
+      <c r="R75" s="135"/>
+      <c r="S75" s="135"/>
+      <c r="T75" s="135"/>
+      <c r="U75" s="135"/>
+      <c r="V75" s="135"/>
+      <c r="W75" s="135"/>
+      <c r="X75" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -31173,127 +31290,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:33" s="12" customFormat="1" ht="12">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="108" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="108" t="s">
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" s="12" customFormat="1" ht="12">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="108" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="108" t="s">
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="110"/>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -31621,98 +31738,98 @@
     </row>
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="136" t="s">
+      <c r="C12" s="151"/>
+      <c r="D12" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="136" t="s">
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="136" t="s">
+      <c r="I12" s="152"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="136" t="s">
+      <c r="L12" s="152"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="136" t="s">
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="138"/>
-      <c r="S12" s="136" t="s">
+      <c r="R12" s="141"/>
+      <c r="S12" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="137"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="136" t="s">
+      <c r="T12" s="140"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="137"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="136" t="s">
+      <c r="W12" s="140"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="141"/>
       <c r="AF12" s="57"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" ht="12.75" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="142"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="59"/>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="144"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="149" t="s">
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="151"/>
-      <c r="M13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="149"/>
       <c r="N13" s="58" t="s">
         <v>30</v>
       </c>
       <c r="O13" s="50"/>
       <c r="P13" s="59"/>
-      <c r="Q13" s="149" t="s">
+      <c r="Q13" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="150"/>
-      <c r="S13" s="146" t="s">
+      <c r="R13" s="149"/>
+      <c r="S13" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="T13" s="147"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="143" t="s">
+      <c r="T13" s="146"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="144"/>
-      <c r="X13" s="145"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="144"/>
       <c r="Y13" s="60" t="s">
         <v>35</v>
       </c>
@@ -32746,16 +32863,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -32770,6 +32877,16 @@
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
